--- a/Solved Questions.xlsx
+++ b/Solved Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.chiragbhisikar/Desktop/DSA---365-Day-Of-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BEF06F-3B31-4742-B337-0034BA6D6A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262131B-52F9-FB4A-9BC4-8EE81377B984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{BDF204E7-E28E-4846-A196-A00BA9D827E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>Topic:</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Leetcode 29</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Second Largest Number</t>
+  </si>
+  <si>
+    <t>Largest Element in the Array</t>
   </si>
 </sst>
 </file>
@@ -628,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C186E7A1-A017-EA41-938C-347AD2E30379}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -893,15 +902,25 @@
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="21">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="21">
-      <c r="A27" s="6"/>
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -1129,6 +1148,8 @@
     <hyperlink ref="C15" r:id="rId20" display="https://leetcode.com/problems/single-number-ii/" xr:uid="{1B6B99C6-1A63-5D4F-B401-C05D578E3AE1}"/>
     <hyperlink ref="C16" r:id="rId21" display="https://leetcode.com/problems/single-number-iii/" xr:uid="{8B60B59B-68B7-674A-A693-443D6B8B5D75}"/>
     <hyperlink ref="C17" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{8E354C5C-4F10-D74A-A42D-B28419EF055A}"/>
+    <hyperlink ref="C27" r:id="rId23" xr:uid="{BC04C215-A0D3-224A-810F-A3D871B05BA8}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{D5795847-C752-CF42-8C6F-EB1753CDBD53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Solved Questions.xlsx
+++ b/Solved Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.chiragbhisikar/Desktop/DSA---365-Day-Of-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D262131B-52F9-FB4A-9BC4-8EE81377B984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF51D89-66C9-FA4C-8503-F42057896629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{BDF204E7-E28E-4846-A196-A00BA9D827E3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
   <si>
     <t>Topic:</t>
   </si>
@@ -169,6 +169,36 @@
   </si>
   <si>
     <t>Largest Element in the Array</t>
+  </si>
+  <si>
+    <t>Coding Ninja</t>
+  </si>
+  <si>
+    <t>Check Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Left Rotate an Array by One</t>
+  </si>
+  <si>
+    <t>Move Zero To The End</t>
+  </si>
+  <si>
+    <t>Linear Search</t>
+  </si>
+  <si>
+    <t>Intersection Of Two Sorted Array</t>
+  </si>
+  <si>
+    <t>Union Array Of Two Sorted Array</t>
+  </si>
+  <si>
+    <t>Maximum Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Find Missing Number From 1 To N</t>
   </si>
 </sst>
 </file>
@@ -635,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C186E7A1-A017-EA41-938C-347AD2E30379}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -905,7 +935,9 @@
       <c r="A26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>45</v>
       </c>
@@ -917,65 +949,141 @@
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="21">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="21">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="21">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="21">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="21">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="21">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="21">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="21">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="21">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="21">
       <c r="A37" s="6"/>
@@ -984,21 +1092,27 @@
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="21">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="21">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="8"/>
       <c r="D39" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="8"/>
+      <c r="A40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D40" s="5" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1123,7 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>4</v>
@@ -1021,7 +1135,7 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>4</v>
@@ -1033,7 +1147,7 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>4</v>
@@ -1045,7 +1159,7 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>4</v>
@@ -1057,7 +1171,7 @@
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>4</v>
@@ -1069,7 +1183,7 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>4</v>
@@ -1081,7 +1195,7 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>4</v>
@@ -1093,7 +1207,7 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>4</v>
@@ -1105,37 +1219,25 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="21">
-      <c r="A50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C41" r:id="rId1" xr:uid="{4DCCBE38-CD62-8344-90CC-4ED48DA99F80}"/>
-    <hyperlink ref="C42" r:id="rId2" xr:uid="{673C0072-64A9-B744-92DA-1B3C61C254CA}"/>
-    <hyperlink ref="C43" r:id="rId3" xr:uid="{AA3B0F83-53C4-4649-9C91-62990640DEB7}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{88ADEE89-50D0-D34C-9310-C78CA2E76C25}"/>
-    <hyperlink ref="C45" r:id="rId5" xr:uid="{FD578087-1F6C-F749-941B-970976C0B928}"/>
-    <hyperlink ref="C46" r:id="rId6" xr:uid="{B7D30E2F-0350-5147-BF25-92077D5173FA}"/>
-    <hyperlink ref="C47" r:id="rId7" xr:uid="{2D3B042A-7189-5543-95CA-16F5B708A279}"/>
-    <hyperlink ref="C48" r:id="rId8" xr:uid="{7CF0E18C-E81E-D740-8039-11F147794442}"/>
-    <hyperlink ref="C49" r:id="rId9" xr:uid="{7E9BFB62-8AEF-E84A-A1E1-6BFF03D0403A}"/>
-    <hyperlink ref="C50" r:id="rId10" xr:uid="{6428B547-E964-9346-AF2A-BDA40A3E7622}"/>
+    <hyperlink ref="C40" r:id="rId1" xr:uid="{4DCCBE38-CD62-8344-90CC-4ED48DA99F80}"/>
+    <hyperlink ref="C41" r:id="rId2" xr:uid="{673C0072-64A9-B744-92DA-1B3C61C254CA}"/>
+    <hyperlink ref="C42" r:id="rId3" xr:uid="{AA3B0F83-53C4-4649-9C91-62990640DEB7}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{88ADEE89-50D0-D34C-9310-C78CA2E76C25}"/>
+    <hyperlink ref="C44" r:id="rId5" xr:uid="{FD578087-1F6C-F749-941B-970976C0B928}"/>
+    <hyperlink ref="C45" r:id="rId6" xr:uid="{B7D30E2F-0350-5147-BF25-92077D5173FA}"/>
+    <hyperlink ref="C46" r:id="rId7" xr:uid="{2D3B042A-7189-5543-95CA-16F5B708A279}"/>
+    <hyperlink ref="C47" r:id="rId8" xr:uid="{7CF0E18C-E81E-D740-8039-11F147794442}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{7E9BFB62-8AEF-E84A-A1E1-6BFF03D0403A}"/>
+    <hyperlink ref="C49" r:id="rId10" xr:uid="{6428B547-E964-9346-AF2A-BDA40A3E7622}"/>
     <hyperlink ref="C11" r:id="rId11" xr:uid="{EC22FC5A-E7B3-0B4C-B06A-CED083DF65CF}"/>
     <hyperlink ref="C8" r:id="rId12" xr:uid="{1BD6009A-2C24-5745-A2C9-D0FC02E3676E}"/>
     <hyperlink ref="C6" r:id="rId13" xr:uid="{081CE045-F4D0-6D47-B40C-293689BA7DBC}"/>
@@ -1150,6 +1252,9 @@
     <hyperlink ref="C17" r:id="rId22" display="https://leetcode.com/problems/divide-two-integers/" xr:uid="{8E354C5C-4F10-D74A-A42D-B28419EF055A}"/>
     <hyperlink ref="C27" r:id="rId23" xr:uid="{BC04C215-A0D3-224A-810F-A3D871B05BA8}"/>
     <hyperlink ref="C26" r:id="rId24" xr:uid="{D5795847-C752-CF42-8C6F-EB1753CDBD53}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{5E89A263-0EAD-324B-BB51-A820A635B457}"/>
+    <hyperlink ref="C29" r:id="rId26" xr:uid="{4DDF63B1-ED10-5E47-BBEA-63B667532AEC}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{3A4CD5F8-0964-E442-9667-646D21AC5879}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
